--- a/test/data/spreadsheets/PMO-2198_a___SSC_usual_1.xlsx
+++ b/test/data/spreadsheets/PMO-2198_a___SSC_usual_1.xlsx
@@ -992,7 +992,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="#,##0;\-#,##0;"/>
     <numFmt numFmtId="169" formatCode="#,##0;\-#,##0;0"/>
-    <numFmt numFmtId="176" formatCode="#,##0.0000000;\-#,##0.0000000;0.0000000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0000000;\-#,##0.0000000;0.0000000"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1778,7 +1778,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="14" fillId="10" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="14" fillId="10" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2448,25 +2448,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90442752"/>
-        <c:axId val="90449024"/>
+        <c:axId val="66899328"/>
+        <c:axId val="118027008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90442752"/>
+        <c:axId val="66899328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90449024"/>
+        <c:crossAx val="118027008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90449024"/>
+        <c:axId val="118027008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2474,7 +2474,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90442752"/>
+        <c:crossAx val="66899328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2486,7 +2486,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2768,11 +2768,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="67897216"/>
-        <c:axId val="99578240"/>
+        <c:axId val="66914944"/>
+        <c:axId val="67211264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67897216"/>
+        <c:axId val="66914944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2797,13 +2797,13 @@
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99578240"/>
+        <c:crossAx val="67211264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99578240"/>
+        <c:axId val="67211264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2829,7 +2829,7 @@
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67897216"/>
+        <c:crossAx val="66914944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5450,8 +5450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AY287"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A217" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C248" sqref="C248"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C215" sqref="C215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" outlineLevelRow="1"/>
@@ -6240,7 +6240,7 @@
       <c r="W51" s="35"/>
       <c r="X51" s="35"/>
     </row>
-    <row r="52" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="52" spans="1:24" outlineLevel="1">
       <c r="A52" s="35"/>
       <c r="B52" s="63" t="s">
         <v>21</v>
@@ -6270,7 +6270,7 @@
       <c r="W52" s="35"/>
       <c r="X52" s="35"/>
     </row>
-    <row r="53" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="53" spans="1:24" outlineLevel="1">
       <c r="A53" s="35"/>
       <c r="B53" s="65"/>
       <c r="C53" s="53"/>
@@ -6298,7 +6298,7 @@
       <c r="W53" s="35"/>
       <c r="X53" s="35"/>
     </row>
-    <row r="54" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="54" spans="1:24" outlineLevel="1">
       <c r="A54" s="35"/>
       <c r="B54" s="66"/>
       <c r="C54" s="67"/>
@@ -6331,7 +6331,7 @@
       <c r="W54" s="35"/>
       <c r="X54" s="35"/>
     </row>
-    <row r="55" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="55" spans="1:24" outlineLevel="1">
       <c r="A55" s="35"/>
       <c r="B55" s="35"/>
       <c r="C55" s="35"/>
@@ -6357,7 +6357,7 @@
       <c r="W55" s="35"/>
       <c r="X55" s="35"/>
     </row>
-    <row r="56" spans="1:24" ht="79.2" hidden="1" outlineLevel="1">
+    <row r="56" spans="1:24" ht="79.2" outlineLevel="1">
       <c r="A56" s="35"/>
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
@@ -6387,7 +6387,7 @@
       <c r="W56" s="35"/>
       <c r="X56" s="35"/>
     </row>
-    <row r="57" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="57" spans="1:24" outlineLevel="1">
       <c r="A57" s="35"/>
       <c r="B57" s="35" t="s">
         <v>1</v>
@@ -6427,7 +6427,7 @@
       <c r="W57" s="35"/>
       <c r="X57" s="35"/>
     </row>
-    <row r="58" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="58" spans="1:24" outlineLevel="1">
       <c r="A58" s="35"/>
       <c r="B58" s="35" t="s">
         <v>51</v>
@@ -6472,9 +6472,9 @@
       <c r="W58" s="35"/>
       <c r="X58" s="35"/>
     </row>
-    <row r="59" spans="1:24" hidden="1" outlineLevel="1"/>
-    <row r="60" spans="1:24" hidden="1" outlineLevel="1"/>
-    <row r="61" spans="1:24" ht="14.4" hidden="1" outlineLevel="1">
+    <row r="59" spans="1:24" outlineLevel="1"/>
+    <row r="60" spans="1:24" outlineLevel="1"/>
+    <row r="61" spans="1:24" ht="14.4" outlineLevel="1">
       <c r="B61" s="151" t="s">
         <v>124</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="62" spans="1:24" outlineLevel="1">
       <c r="A62" s="136" t="s">
         <v>3</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>0.48960155490767732</v>
       </c>
     </row>
-    <row r="63" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="63" spans="1:24" outlineLevel="1">
       <c r="A63" s="129" t="s">
         <v>121</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>8.699999999999998E-2</v>
       </c>
       <c r="C63" s="192">
-        <f t="dataTable" ref="C63:F63" dt2D="0" dtr="1" r1="D57" ca="1"/>
+        <f t="dataTable" ref="C63:F63" dt2D="0" dtr="1" r1="D57"/>
         <v>4.349999999999999E-2</v>
       </c>
       <c r="D63" s="192">
@@ -6537,7 +6537,7 @@
         <v>7.7953352769679241E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="64" spans="1:24" outlineLevel="1">
       <c r="A64" s="136" t="s">
         <v>3</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>0.51269193391642376</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="65" spans="1:8" outlineLevel="1">
       <c r="A65" s="129" t="s">
         <v>121</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>8.699999999999998E-2</v>
       </c>
       <c r="C65" s="126">
-        <f t="dataTable" ref="C65:F65" dt2D="0" dtr="1" r1="D57"/>
+        <f t="dataTable" ref="C65:F65" dt2D="0" dtr="1" r1="D57" ca="1"/>
         <v>0</v>
       </c>
       <c r="D65" s="192">
@@ -6583,7 +6583,7 @@
         <v>8.699999999999998E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="66" spans="1:8" outlineLevel="1">
       <c r="A66" s="136" t="s">
         <v>3</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>0.6004511278195489</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="67" spans="1:8" outlineLevel="1">
       <c r="A67" s="129" t="s">
         <v>121</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>8.699999999999998E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="68" spans="1:8" outlineLevel="1">
       <c r="A68" s="136" t="s">
         <v>3</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>0.7046470588235294</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="69" spans="1:8" outlineLevel="1">
       <c r="A69" s="129" t="s">
         <v>121</v>
       </c>
@@ -6675,8 +6675,8 @@
         <v>8.699999999999998E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" outlineLevel="1"/>
-    <row r="71" spans="1:8" ht="14.4" hidden="1" outlineLevel="1">
+    <row r="70" spans="1:8" outlineLevel="1"/>
+    <row r="71" spans="1:8" ht="14.4" outlineLevel="1">
       <c r="A71" s="151"/>
       <c r="B71" s="123" t="s">
         <v>126</v>
@@ -6694,7 +6694,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="72" spans="1:8" outlineLevel="1">
       <c r="B72" s="122" t="s">
         <v>112</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>7.7953352769679241E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="73" spans="1:8" outlineLevel="1">
       <c r="B73" s="122" t="s">
         <v>111</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>8.699999999999998E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="74" spans="1:8" outlineLevel="1">
       <c r="B74" s="122" t="s">
         <v>110</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>8.699999999999998E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="75" spans="1:8" outlineLevel="1">
       <c r="B75" s="122" t="s">
         <v>109</v>
       </c>
@@ -6760,13 +6760,13 @@
         <v>8.699999999999998E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="76" spans="1:8" outlineLevel="1">
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
       <c r="F76" s="127"/>
     </row>
-    <row r="77" spans="1:8" ht="14.4" hidden="1" outlineLevel="1">
+    <row r="77" spans="1:8" ht="14.4" outlineLevel="1">
       <c r="B77" s="123" t="s">
         <v>218</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="78" spans="1:8" outlineLevel="1">
       <c r="B78" s="122" t="s">
         <v>112</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="79" spans="1:8" outlineLevel="1">
       <c r="B79" s="122" t="s">
         <v>111</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="80" spans="1:8" outlineLevel="1">
       <c r="B80" s="122" t="s">
         <v>110</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="81" spans="1:14" hidden="1" outlineLevel="1">
+    <row r="81" spans="1:14" outlineLevel="1">
       <c r="A81" t="s">
         <v>223</v>
       </c>
@@ -6867,18 +6867,18 @@
         <v>224</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" outlineLevel="1">
+    <row r="82" spans="1:14" outlineLevel="1">
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:14" hidden="1" outlineLevel="1">
+    <row r="83" spans="1:14" outlineLevel="1">
       <c r="B83"/>
     </row>
-    <row r="84" spans="1:14" s="149" customFormat="1" ht="15.6" hidden="1" outlineLevel="1">
+    <row r="84" spans="1:14" s="149" customFormat="1" ht="15.6" outlineLevel="1">
       <c r="B84" s="150" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="176" customFormat="1" ht="15.6" collapsed="1">
+    <row r="85" spans="1:14" s="176" customFormat="1" ht="15.6">
       <c r="B85" s="177"/>
     </row>
     <row r="86" spans="1:14" s="176" customFormat="1" ht="15.6">
@@ -6892,7 +6892,7 @@
     <row r="87" spans="1:14" s="176" customFormat="1" ht="15.6">
       <c r="B87" s="177"/>
     </row>
-    <row r="88" spans="1:14" ht="14.4" hidden="1" outlineLevel="1">
+    <row r="88" spans="1:14" ht="14.4" outlineLevel="1">
       <c r="B88" s="123" t="s">
         <v>192</v>
       </c>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="H88" s="170"/>
     </row>
-    <row r="89" spans="1:14" hidden="1" outlineLevel="1">
+    <row r="89" spans="1:14" outlineLevel="1">
       <c r="B89" s="122" t="s">
         <v>112</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" outlineLevel="1">
+    <row r="90" spans="1:14" outlineLevel="1">
       <c r="B90" s="122" t="s">
         <v>111</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>72.675697499999998</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" outlineLevel="1">
+    <row r="91" spans="1:14" outlineLevel="1">
       <c r="B91" s="122" t="s">
         <v>110</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>62.623049999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1" outlineLevel="1">
+    <row r="92" spans="1:14" outlineLevel="1">
       <c r="B92" s="122" t="s">
         <v>109</v>
       </c>
@@ -6997,11 +6997,11 @@
         <v>53.363</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="176" customFormat="1" ht="15.6" hidden="1" outlineLevel="1">
+    <row r="93" spans="1:14" s="176" customFormat="1" ht="15.6" outlineLevel="1">
       <c r="B93" s="177"/>
     </row>
-    <row r="94" spans="1:14" hidden="1" outlineLevel="1"/>
-    <row r="95" spans="1:14" s="149" customFormat="1" ht="15.6" collapsed="1">
+    <row r="94" spans="1:14" outlineLevel="1"/>
+    <row r="95" spans="1:14" s="149" customFormat="1" ht="15.6">
       <c r="B95" s="150" t="s">
         <v>92</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>0.17999999999999994</v>
       </c>
       <c r="J102" s="126">
-        <f t="dataTable" ref="J102:AY102" dt2D="0" dtr="1" r1="D105" ca="1"/>
+        <f t="dataTable" ref="J102:AY102" dt2D="0" dtr="1" r1="D105"/>
         <v>0.9</v>
       </c>
       <c r="K102" s="126">
@@ -7737,7 +7737,7 @@
         <v>0.17999999999999994</v>
       </c>
       <c r="C118" s="192">
-        <f t="dataTable" ref="C118:F118" dt2D="0" dtr="1" r1="D105"/>
+        <f t="dataTable" ref="C118:F118" dt2D="0" dtr="1" r1="D105" ca="1"/>
         <v>0.45284999999999997</v>
       </c>
       <c r="D118" s="192">
@@ -8402,7 +8402,7 @@
     <row r="163" spans="2:8">
       <c r="B163"/>
     </row>
-    <row r="164" spans="2:8" s="172" customFormat="1" ht="14.4" hidden="1" outlineLevel="1">
+    <row r="164" spans="2:8" s="172" customFormat="1" ht="14.4" outlineLevel="1">
       <c r="B164" s="174" t="s">
         <v>213</v>
       </c>
@@ -8420,7 +8420,7 @@
       </c>
       <c r="H164" s="170"/>
     </row>
-    <row r="165" spans="2:8" s="172" customFormat="1" ht="14.4" hidden="1" outlineLevel="1">
+    <row r="165" spans="2:8" s="172" customFormat="1" ht="14.4" outlineLevel="1">
       <c r="B165" s="184" t="s">
         <v>210</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="166" spans="2:8" s="172" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="166" spans="2:8" s="172" customFormat="1" outlineLevel="1">
       <c r="B166" s="175" t="s">
         <v>112</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="167" spans="2:8" s="172" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="167" spans="2:8" s="172" customFormat="1" outlineLevel="1">
       <c r="B167" s="175" t="s">
         <v>111</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>68.333420249999989</v>
       </c>
     </row>
-    <row r="168" spans="2:8" s="172" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="168" spans="2:8" s="172" customFormat="1" outlineLevel="1">
       <c r="B168" s="175" t="s">
         <v>110</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>46.100594999999991</v>
       </c>
     </row>
-    <row r="169" spans="2:8" s="172" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="169" spans="2:8" s="172" customFormat="1" outlineLevel="1">
       <c r="B169" s="175" t="s">
         <v>109</v>
       </c>
@@ -8522,14 +8522,14 @@
         <v>26.352999999999998</v>
       </c>
     </row>
-    <row r="170" spans="2:8" s="172" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="170" spans="2:8" s="172" customFormat="1" outlineLevel="1">
       <c r="B170" s="175"/>
       <c r="C170" s="201"/>
       <c r="D170" s="201"/>
       <c r="E170" s="201"/>
       <c r="F170" s="186"/>
     </row>
-    <row r="171" spans="2:8" ht="20.399999999999999" collapsed="1">
+    <row r="171" spans="2:8" ht="20.399999999999999">
       <c r="B171" s="123" t="s">
         <v>176</v>
       </c>
@@ -8541,7 +8541,7 @@
     <row r="172" spans="2:8">
       <c r="B172"/>
     </row>
-    <row r="173" spans="2:8" ht="14.4" hidden="1" outlineLevel="1">
+    <row r="173" spans="2:8" ht="14.4" outlineLevel="1">
       <c r="B173" s="123" t="s">
         <v>214</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="174" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="174" spans="2:8" outlineLevel="1">
       <c r="B174" s="122" t="s">
         <v>112</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>70.706996999999987</v>
       </c>
     </row>
-    <row r="175" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="175" spans="2:8" outlineLevel="1">
       <c r="B175" s="122" t="s">
         <v>111</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>68.333420249999989</v>
       </c>
     </row>
-    <row r="176" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="176" spans="2:8" outlineLevel="1">
       <c r="B176" s="122" t="s">
         <v>110</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>46.100594999999991</v>
       </c>
     </row>
-    <row r="177" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="177" spans="2:8" outlineLevel="1">
       <c r="B177" s="122" t="s">
         <v>109</v>
       </c>
@@ -8642,20 +8642,20 @@
         <v>26.352999999999998</v>
       </c>
     </row>
-    <row r="178" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="178" spans="2:8" outlineLevel="1">
       <c r="C178" s="158"/>
       <c r="D178" s="158"/>
       <c r="E178" s="158"/>
       <c r="F178" s="162"/>
     </row>
-    <row r="179" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="179" spans="2:8" outlineLevel="1">
       <c r="B179" s="175"/>
       <c r="C179" s="201"/>
       <c r="D179" s="201"/>
       <c r="E179" s="201"/>
       <c r="F179" s="186"/>
     </row>
-    <row r="180" spans="2:8" ht="14.4" hidden="1" outlineLevel="1">
+    <row r="180" spans="2:8" ht="14.4" outlineLevel="1">
       <c r="B180" s="174" t="s">
         <v>237</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="181" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="181" spans="2:8" outlineLevel="1">
       <c r="B181" s="175" t="s">
         <v>112</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="182" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="182" spans="2:8" outlineLevel="1">
       <c r="B182" s="175" t="s">
         <v>111</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>20.281589999999998</v>
       </c>
     </row>
-    <row r="183" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="183" spans="2:8" outlineLevel="1">
       <c r="B183" s="175" t="s">
         <v>110</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>17.476199999999999</v>
       </c>
     </row>
-    <row r="184" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="184" spans="2:8" outlineLevel="1">
       <c r="B184" s="175" t="s">
         <v>109</v>
       </c>
@@ -8759,27 +8759,27 @@
         <v>14.891999999999999</v>
       </c>
     </row>
-    <row r="185" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="185" spans="2:8" outlineLevel="1">
       <c r="C185" s="158"/>
       <c r="D185" s="158"/>
       <c r="E185" s="158"/>
       <c r="F185" s="162"/>
     </row>
-    <row r="186" spans="2:8" s="172" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="186" spans="2:8" s="172" customFormat="1" outlineLevel="1">
       <c r="B186" s="175"/>
       <c r="C186" s="201"/>
       <c r="D186" s="201"/>
       <c r="E186" s="201"/>
       <c r="F186" s="186"/>
     </row>
-    <row r="187" spans="2:8" s="172" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="187" spans="2:8" s="172" customFormat="1" outlineLevel="1">
       <c r="B187" s="175"/>
       <c r="C187" s="201"/>
       <c r="D187" s="201"/>
       <c r="E187" s="201"/>
       <c r="F187" s="186"/>
     </row>
-    <row r="188" spans="2:8" ht="14.4" hidden="1" outlineLevel="1">
+    <row r="188" spans="2:8" ht="14.4" outlineLevel="1">
       <c r="B188" s="123" t="s">
         <v>239</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="189" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="189" spans="2:8" outlineLevel="1">
       <c r="B189" s="122" t="s">
         <v>112</v>
       </c>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="H189" s="32"/>
     </row>
-    <row r="190" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="190" spans="2:8" outlineLevel="1">
       <c r="B190" s="122" t="s">
         <v>111</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>45.100057364999998</v>
       </c>
     </row>
-    <row r="191" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="191" spans="2:8" outlineLevel="1">
       <c r="B191" s="122" t="s">
         <v>110</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>30.426392699999997</v>
       </c>
     </row>
-    <row r="192" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="192" spans="2:8" outlineLevel="1">
       <c r="B192" s="122" t="s">
         <v>109</v>
       </c>
@@ -8884,13 +8884,13 @@
         <v>17.392979999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="193" spans="1:10" outlineLevel="1">
       <c r="B193"/>
       <c r="H193" s="32"/>
       <c r="I193" s="32"/>
       <c r="J193" s="32"/>
     </row>
-    <row r="194" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="194" spans="1:10" outlineLevel="1">
       <c r="A194" s="172"/>
       <c r="B194" s="172"/>
       <c r="C194" s="172"/>
@@ -8901,7 +8901,7 @@
       <c r="I194" s="32"/>
       <c r="J194" s="32"/>
     </row>
-    <row r="195" spans="1:10" ht="14.4" hidden="1" outlineLevel="1">
+    <row r="195" spans="1:10" ht="14.4" outlineLevel="1">
       <c r="A195" s="172"/>
       <c r="B195" s="174" t="s">
         <v>240</v>
@@ -8923,7 +8923,7 @@
       </c>
       <c r="J195" s="32"/>
     </row>
-    <row r="196" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="196" spans="1:10" outlineLevel="1">
       <c r="A196" s="172"/>
       <c r="B196" s="175" t="s">
         <v>112</v>
@@ -8948,7 +8948,7 @@
       <c r="I196" s="32"/>
       <c r="J196" s="32"/>
     </row>
-    <row r="197" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="197" spans="1:10" outlineLevel="1">
       <c r="A197" s="172"/>
       <c r="B197" s="175" t="s">
         <v>111</v>
@@ -8973,7 +8973,7 @@
       <c r="I197" s="32"/>
       <c r="J197" s="32"/>
     </row>
-    <row r="198" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="198" spans="1:10" outlineLevel="1">
       <c r="A198" s="172"/>
       <c r="B198" s="175" t="s">
         <v>110</v>
@@ -8995,7 +8995,7 @@
         <v>47.9025927</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="199" spans="1:10" outlineLevel="1">
       <c r="A199" s="172"/>
       <c r="B199" s="175" t="s">
         <v>109</v>
@@ -9017,7 +9017,7 @@
         <v>32.284979999999997</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="200" spans="1:10" outlineLevel="1">
       <c r="A200" s="172"/>
       <c r="B200" s="175"/>
       <c r="C200" s="201"/>
@@ -9025,7 +9025,7 @@
       <c r="E200" s="201"/>
       <c r="F200" s="186"/>
     </row>
-    <row r="201" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="201" spans="1:10" outlineLevel="1">
       <c r="A201" s="172"/>
       <c r="B201" s="172"/>
       <c r="C201" s="172"/>
@@ -9033,10 +9033,10 @@
       <c r="E201" s="172"/>
       <c r="F201" s="172"/>
     </row>
-    <row r="202" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="202" spans="1:10" outlineLevel="1">
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:10" ht="17.399999999999999" collapsed="1">
+    <row r="203" spans="1:10" ht="17.399999999999999">
       <c r="B203" s="123" t="s">
         <v>185</v>
       </c>
